--- a/src/Variable_Database.xlsx
+++ b/src/Variable_Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="468">
   <si>
     <t>Description</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>nRealizations</t>
   </si>
   <si>
-    <t>Scaler - Integer</t>
-  </si>
-  <si>
     <t>The number of Monte Carlo realizations to be analyzed for each ground motion record</t>
   </si>
   <si>
@@ -1368,13 +1365,96 @@
   </si>
   <si>
     <t>Status of the analysis parameters definition: 0=not defined; 1=defined</t>
+  </si>
+  <si>
+    <t>convUnit</t>
+  </si>
+  <si>
+    <t>A factor used to convert the input units of the loads from psf or kN/m2 to ksi or kN/mm2, respectively</t>
+  </si>
+  <si>
+    <t>ColElementOption</t>
+  </si>
+  <si>
+    <t>The modeling option for main frame columns: 1=Lumped plasticity; 2=Displacement-based fiber element; 3=Force-based fiber element</t>
+  </si>
+  <si>
+    <t>Contains the floor elevations</t>
+  </si>
+  <si>
+    <t>HalfElevation</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Get_Grid.m</t>
+  </si>
+  <si>
+    <t>Contains the mid-story elevations</t>
+  </si>
+  <si>
+    <t>GridX</t>
+  </si>
+  <si>
+    <t>GridY</t>
+  </si>
+  <si>
+    <t>Contains the numerical model column axis grid locations</t>
+  </si>
+  <si>
+    <t>AXIS</t>
+  </si>
+  <si>
+    <t>YTickLabel</t>
+  </si>
+  <si>
+    <t>XTickLabel</t>
+  </si>
+  <si>
+    <t>Contains the labels for the floor elevations which will be used in plots</t>
+  </si>
+  <si>
+    <t>Contains the labels for the column axis locations which will be used in plots</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>MException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object containing the error identification information</t>
+    </r>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Pscale</t>
+  </si>
+  <si>
+    <t>The -optional- scale factor to be used to compute column axial load demnad (P) due to gravity to be considered in P-M interation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,6 +1477,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1431,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1443,6 +1528,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1757,14 +1843,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
@@ -1772,7 +1858,7 @@
     <col min="4" max="4" width="163.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1786,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -1800,7 +1886,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>303</v>
       </c>
@@ -1814,7 +1900,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>320</v>
       </c>
@@ -1828,7 +1914,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
@@ -1839,10 +1925,10 @@
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>382</v>
       </c>
@@ -1856,7 +1942,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1870,7 +1956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>328</v>
       </c>
@@ -1884,7 +1970,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>329</v>
       </c>
@@ -1898,7 +1984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>330</v>
       </c>
@@ -1912,7 +1998,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +2012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +2026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>155</v>
       </c>
@@ -1954,7 +2040,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -1968,7 +2054,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
@@ -1982,7 +2068,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>187</v>
       </c>
@@ -1996,7 +2082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -2010,7 +2096,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>203</v>
       </c>
@@ -2024,7 +2110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>358</v>
       </c>
@@ -2038,7 +2124,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2166,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>163</v>
       </c>
@@ -2094,7 +2180,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>236</v>
       </c>
@@ -2108,7 +2194,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>379</v>
       </c>
@@ -2122,7 +2208,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>233</v>
       </c>
@@ -2136,7 +2222,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>237</v>
       </c>
@@ -2150,7 +2236,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>182</v>
       </c>
@@ -2164,7 +2250,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>189</v>
       </c>
@@ -2178,7 +2264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>186</v>
       </c>
@@ -2192,7 +2278,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>180</v>
       </c>
@@ -2206,7 +2292,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>285</v>
       </c>
@@ -2220,7 +2306,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>235</v>
       </c>
@@ -2234,7 +2320,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>378</v>
       </c>
@@ -2248,7 +2334,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +2348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>225</v>
       </c>
@@ -2276,7 +2362,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>226</v>
       </c>
@@ -2290,7 +2376,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>247</v>
       </c>
@@ -2304,7 +2390,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
@@ -2318,7 +2404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
@@ -2332,7 +2418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2346,7 +2432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>269</v>
       </c>
@@ -2360,7 +2446,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>270</v>
       </c>
@@ -2374,7 +2460,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>178</v>
       </c>
@@ -2388,7 +2474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -2402,7 +2488,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>312</v>
       </c>
@@ -2416,7 +2502,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -2430,7 +2516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>114</v>
       </c>
@@ -2444,7 +2530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>215</v>
       </c>
@@ -2458,7 +2544,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>232</v>
       </c>
@@ -2472,7 +2558,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2486,7 +2572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
@@ -2500,7 +2586,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -2514,7 +2600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>146</v>
       </c>
@@ -2528,7 +2614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -2542,7 +2628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>169</v>
       </c>
@@ -2556,7 +2642,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>151</v>
       </c>
@@ -2570,7 +2656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>302</v>
       </c>
@@ -2584,7 +2670,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>276</v>
       </c>
@@ -2598,7 +2684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>363</v>
       </c>
@@ -2626,7 +2712,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
@@ -2640,9 +2726,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -2654,9 +2740,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>22</v>
@@ -2668,9 +2754,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -2682,7 +2768,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
@@ -2710,7 +2796,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>176</v>
       </c>
@@ -2724,7 +2810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -2738,7 +2824,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>143</v>
       </c>
@@ -2752,7 +2838,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>347</v>
       </c>
@@ -2766,7 +2852,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>350</v>
       </c>
@@ -2780,7 +2866,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>352</v>
       </c>
@@ -2794,7 +2880,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>346</v>
       </c>
@@ -2808,7 +2894,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>310</v>
       </c>
@@ -2822,7 +2908,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>309</v>
       </c>
@@ -2836,7 +2922,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>355</v>
       </c>
@@ -2850,7 +2936,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>354</v>
       </c>
@@ -2864,7 +2950,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -2878,7 +2964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>305</v>
       </c>
@@ -2892,7 +2978,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>123</v>
       </c>
@@ -2906,9 +2992,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>23</v>
@@ -2920,7 +3006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>318</v>
       </c>
@@ -2934,7 +3020,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
@@ -2948,7 +3034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>260</v>
       </c>
@@ -2962,7 +3048,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>229</v>
       </c>
@@ -2976,7 +3062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>364</v>
       </c>
@@ -2990,7 +3076,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3004,7 +3090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>75</v>
       </c>
@@ -3018,7 +3104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -3032,7 +3118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>107</v>
       </c>
@@ -3057,7 +3143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
@@ -3071,7 +3157,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>174</v>
       </c>
@@ -3085,7 +3171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>252</v>
       </c>
@@ -3099,7 +3185,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>253</v>
       </c>
@@ -3113,7 +3199,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>257</v>
       </c>
@@ -3127,7 +3213,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>183</v>
       </c>
@@ -3141,7 +3227,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>188</v>
       </c>
@@ -3155,7 +3241,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>185</v>
       </c>
@@ -3169,7 +3255,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
@@ -3183,7 +3269,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>184</v>
       </c>
@@ -3197,7 +3283,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>265</v>
       </c>
@@ -3211,7 +3297,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>339</v>
       </c>
@@ -3225,7 +3311,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -3236,10 +3322,10 @@
         <v>245</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>126</v>
       </c>
@@ -3253,7 +3339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>220</v>
       </c>
@@ -3267,9 +3353,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>28</v>
@@ -3278,10 +3364,10 @@
         <v>141</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>271</v>
       </c>
@@ -3295,7 +3381,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>241</v>
       </c>
@@ -3309,7 +3395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>240</v>
       </c>
@@ -3323,7 +3409,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>344</v>
       </c>
@@ -3337,7 +3423,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>259</v>
       </c>
@@ -3351,7 +3437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>238</v>
       </c>
@@ -3365,7 +3451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>261</v>
       </c>
@@ -3379,7 +3465,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>142</v>
       </c>
@@ -3393,7 +3479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -3407,7 +3493,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>244</v>
       </c>
@@ -3421,7 +3507,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>277</v>
       </c>
@@ -3435,7 +3521,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>113</v>
       </c>
@@ -3449,7 +3535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -3463,7 +3549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>14</v>
       </c>
@@ -3477,7 +3563,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>167</v>
       </c>
@@ -3491,7 +3577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>86</v>
       </c>
@@ -3505,7 +3591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" s="3" t="s">
         <v>90</v>
       </c>
@@ -3533,7 +3619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>91</v>
       </c>
@@ -3547,7 +3633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
         <v>88</v>
       </c>
@@ -3561,7 +3647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>85</v>
       </c>
@@ -3575,7 +3661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
         <v>84</v>
       </c>
@@ -3589,7 +3675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>94</v>
       </c>
@@ -3603,7 +3689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
         <v>95</v>
       </c>
@@ -3617,7 +3703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>92</v>
       </c>
@@ -3631,7 +3717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
         <v>82</v>
       </c>
@@ -3645,7 +3731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>83</v>
       </c>
@@ -3659,7 +3745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>87</v>
       </c>
@@ -3673,7 +3759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>81</v>
       </c>
@@ -3687,7 +3773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
         <v>93</v>
       </c>
@@ -3701,7 +3787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>80</v>
       </c>
@@ -3715,7 +3801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -3743,7 +3829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
         <v>19</v>
       </c>
@@ -3757,7 +3843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
         <v>12</v>
       </c>
@@ -3785,7 +3871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
         <v>135</v>
       </c>
@@ -3813,7 +3899,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>282</v>
       </c>
@@ -3827,7 +3913,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" s="3" t="s">
         <v>284</v>
       </c>
@@ -3841,7 +3927,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>20</v>
       </c>
@@ -3855,7 +3941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
         <v>105</v>
       </c>
@@ -3869,7 +3955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
         <v>323</v>
       </c>
@@ -3883,7 +3969,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
         <v>99</v>
       </c>
@@ -3897,7 +3983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>322</v>
       </c>
@@ -3911,7 +3997,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" s="3" t="s">
         <v>64</v>
       </c>
@@ -3925,7 +4011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>108</v>
       </c>
@@ -3939,7 +4025,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" s="3" t="s">
         <v>179</v>
       </c>
@@ -3953,7 +4039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>367</v>
       </c>
@@ -3967,7 +4053,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>217</v>
       </c>
@@ -3981,7 +4067,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
@@ -3995,7 +4081,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
         <v>342</v>
       </c>
@@ -4007,7 +4093,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>74</v>
       </c>
@@ -4021,7 +4107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" s="3" t="s">
         <v>266</v>
       </c>
@@ -4035,7 +4121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -4049,7 +4135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
         <v>278</v>
       </c>
@@ -4063,7 +4149,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>272</v>
       </c>
@@ -4077,7 +4163,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
         <v>273</v>
       </c>
@@ -4091,7 +4177,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>274</v>
       </c>
@@ -4105,7 +4191,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" s="3" t="s">
         <v>275</v>
       </c>
@@ -4119,7 +4205,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
         <v>326</v>
       </c>
@@ -4133,7 +4219,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" s="3" t="s">
         <v>311</v>
       </c>
@@ -4147,7 +4233,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>251</v>
       </c>
@@ -4161,7 +4247,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" s="3" t="s">
         <v>279</v>
       </c>
@@ -4175,7 +4261,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
@@ -4189,7 +4275,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
         <v>281</v>
       </c>
@@ -4203,7 +4289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>283</v>
       </c>
@@ -4217,7 +4303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>97</v>
       </c>
@@ -4245,7 +4331,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
         <v>212</v>
       </c>
@@ -4259,7 +4345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>304</v>
       </c>
@@ -4273,7 +4359,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
         <v>62</v>
       </c>
@@ -4287,7 +4373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
         <v>384</v>
       </c>
@@ -4301,7 +4387,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>386</v>
       </c>
@@ -4315,7 +4401,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>389</v>
       </c>
@@ -4329,284 +4415,438 @@
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B185" t="s">
         <v>23</v>
       </c>
       <c r="C185" t="s">
+        <v>396</v>
+      </c>
+      <c r="D185" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B186" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D186" s="4" t="s">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="B187" t="s">
         <v>402</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
+        <v>396</v>
+      </c>
+      <c r="D187" t="s">
         <v>403</v>
       </c>
-      <c r="C187" t="s">
-        <v>397</v>
-      </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="B188" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D188" s="4" t="s">
+      <c r="B189" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189" t="s">
+        <v>396</v>
+      </c>
+      <c r="D189" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B189" t="s">
-        <v>407</v>
-      </c>
-      <c r="C189" t="s">
-        <v>397</v>
-      </c>
-      <c r="D189" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="B190" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D190" s="5" t="s">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
       </c>
       <c r="C191" t="s">
+        <v>415</v>
+      </c>
+      <c r="D191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>396</v>
+      </c>
+      <c r="D193" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D191" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="B194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>396</v>
+      </c>
+      <c r="D195" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B193" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" t="s">
-        <v>397</v>
-      </c>
-      <c r="D193" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B195" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" t="s">
-        <v>397</v>
-      </c>
-      <c r="D195" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="D196" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" t="s">
+        <v>415</v>
+      </c>
+      <c r="D197" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B197" t="s">
-        <v>22</v>
-      </c>
-      <c r="C197" t="s">
-        <v>416</v>
-      </c>
-      <c r="D197" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" s="3" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D198" s="4" t="s">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="B199" t="s">
         <v>430</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
+        <v>396</v>
+      </c>
+      <c r="D199" t="s">
         <v>431</v>
       </c>
-      <c r="C199" t="s">
-        <v>397</v>
-      </c>
-      <c r="D199" t="s">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="B200" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D200" s="4" t="s">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="B201" t="s">
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D201" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="B202" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>374</v>
       </c>
       <c r="D202" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="C203" t="s">
         <v>390</v>
       </c>
       <c r="D203" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B205" t="s">
+        <v>430</v>
+      </c>
+      <c r="C205" t="s">
+        <v>141</v>
+      </c>
+      <c r="D205" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>454</v>
+      </c>
+      <c r="D207" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>454</v>
+      </c>
+      <c r="D209" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B211" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" t="s">
+        <v>454</v>
+      </c>
+      <c r="D211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D213" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/src/Variable_Database.xlsx
+++ b/src/Variable_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Dropbox\Under Development\FM-2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E951AF-F6B2-4275-AD0C-5C1EB4FE70E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED1B0B-5C4F-4EAD-8672-C1BDA941FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="596">
   <si>
     <t>Description</t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t>The name of the material grade</t>
+  </si>
+  <si>
+    <t>Scalar- double</t>
   </si>
 </sst>
 </file>
@@ -2226,8 +2229,8 @@
   <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A290" sqref="A290:D307"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5906,7 +5909,7 @@
         <v>479</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>478</v>
+        <v>595</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>480</v>
